--- a/myapp/files/9_MethodComparePercent/Scenario 351.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 351.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>1376</v>
+        <v>12154</v>
       </c>
       <c r="F2" t="n">
-        <v>1.6346507953479</v>
+        <v>2.18048471561664</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.75438596491228</v>
+        <v>1.72413793103448</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>2102</v>
+        <v>14823</v>
       </c>
       <c r="F3" t="n">
-        <v>2.49711916556779</v>
+        <v>2.65931585811959</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -631,10 +631,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>3.50877192982456</v>
+        <v>3.10344827586207</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>1120</v>
+        <v>15803</v>
       </c>
       <c r="F4" t="n">
-        <v>1.33052971714364</v>
+        <v>2.83513246345975</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>1.75438596491228</v>
+        <v>3.44827586206897</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>18156</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3.25727172097546</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3.44827586206897</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>7503</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.34607345904819</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1.03448275862069</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>1350</v>
+        <v>8498</v>
       </c>
       <c r="F7" t="n">
-        <v>1.60376349834278</v>
+        <v>1.52458113487825</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.75438596491228</v>
+        <v>1.72413793103448</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>2409</v>
+        <v>19602</v>
       </c>
       <c r="F8" t="n">
-        <v>2.86182686482056</v>
+        <v>3.51669091620186</v>
       </c>
       <c r="G8" t="n">
         <v>8</v>
@@ -821,16 +821,16 @@
         <v>10.8108108108108</v>
       </c>
       <c r="I8" t="n">
+        <v>11</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.79310344827586</v>
+      </c>
+      <c r="K8" t="n">
         <v>3</v>
       </c>
-      <c r="J8" t="n">
-        <v>5.26315789473684</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2</v>
-      </c>
       <c r="L8" t="n">
-        <v>2.7027027027027</v>
+        <v>4.05405405405405</v>
       </c>
     </row>
     <row r="9">
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>3474</v>
+        <v>28832</v>
       </c>
       <c r="F9" t="n">
-        <v>4.12701806906875</v>
+        <v>5.17259629098725</v>
       </c>
       <c r="G9" t="n">
         <v>4</v>
@@ -859,10 +859,10 @@
         <v>5.40540540540541</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J9" t="n">
-        <v>3.50877192982456</v>
+        <v>5.51724137931035</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>4747</v>
+        <v>26170</v>
       </c>
       <c r="F10" t="n">
-        <v>5.6393076493579</v>
+        <v>4.69502098137959</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -897,16 +897,16 @@
         <v>2.7027027027027</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J10" t="n">
-        <v>5.26315789473684</v>
+        <v>6.55172413793103</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>8.10810810810811</v>
+        <v>6.75675675675676</v>
       </c>
     </row>
     <row r="11">
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>1621</v>
+        <v>13083</v>
       </c>
       <c r="F11" t="n">
-        <v>1.92570417097307</v>
+        <v>2.34715168129114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>3.50877192982456</v>
+        <v>3.44827586206897</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>3551</v>
+        <v>16489</v>
       </c>
       <c r="F12" t="n">
-        <v>4.21849198712237</v>
+        <v>2.95820408719786</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.75438596491228</v>
+        <v>1.72413793103448</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>6585</v>
+        <v>28243</v>
       </c>
       <c r="F13" t="n">
-        <v>7.82280195302755</v>
+        <v>5.06692692308382</v>
       </c>
       <c r="G13" t="n">
         <v>6</v>
@@ -1011,16 +1011,16 @@
         <v>8.10810810810811</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>7.01754385964912</v>
+        <v>4.48275862068966</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.35135135135135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>13135</v>
+        <v>61331</v>
       </c>
       <c r="F14" t="n">
-        <v>15.6040248523944</v>
+        <v>11.0030696144055</v>
       </c>
       <c r="G14" t="n">
         <v>21</v>
@@ -1049,10 +1049,10 @@
         <v>28.3783783783784</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="J14" t="n">
-        <v>14.0350877192982</v>
+        <v>8.96551724137931</v>
       </c>
       <c r="K14" t="n">
         <v>13</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>8216</v>
+        <v>47629</v>
       </c>
       <c r="F15" t="n">
-        <v>9.76038585361797</v>
+        <v>8.54486642423112</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
@@ -1087,10 +1087,10 @@
         <v>4.05405405405405</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="J15" t="n">
-        <v>14.0350877192982</v>
+        <v>9.31034482758621</v>
       </c>
       <c r="K15" t="n">
         <v>6</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>8041</v>
+        <v>34224</v>
       </c>
       <c r="F16" t="n">
-        <v>9.55249058531428</v>
+        <v>6.13994642975678</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J16" t="n">
-        <v>8.7719298245614</v>
+        <v>5.51724137931035</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>1344</v>
+        <v>16281</v>
       </c>
       <c r="F17" t="n">
-        <v>1.59663566057237</v>
+        <v>2.92088790973791</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
-        <v>1.75438596491228</v>
+        <v>2.41379310344828</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>5862</v>
+        <v>31050</v>
       </c>
       <c r="F18" t="n">
-        <v>6.96389750169286</v>
+        <v>5.57051591409385</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -1201,10 +1201,10 @@
         <v>4.05405405405405</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J18" t="n">
-        <v>5.26315789473684</v>
+        <v>5.17241379310345</v>
       </c>
       <c r="K18" t="n">
         <v>3</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>5960</v>
+        <v>41903</v>
       </c>
       <c r="F19" t="n">
-        <v>7.08031885194293</v>
+        <v>7.51759511588647</v>
       </c>
       <c r="G19" t="n">
         <v>15</v>
@@ -1239,10 +1239,10 @@
         <v>20.2702702702703</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="J19" t="n">
-        <v>5.26315789473684</v>
+        <v>7.58620689655172</v>
       </c>
       <c r="K19" t="n">
         <v>6</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>2396</v>
+        <v>34294</v>
       </c>
       <c r="F20" t="n">
-        <v>2.846383216318</v>
+        <v>6.15250475870965</v>
       </c>
       <c r="G20" t="n">
         <v>5</v>
@@ -1277,10 +1277,10 @@
         <v>6.75675675675676</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J20" t="n">
-        <v>5.26315789473684</v>
+        <v>7.24137931034483</v>
       </c>
       <c r="K20" t="n">
         <v>5</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>16316</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2.92716707421434</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2.75862068965517</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>630</v>
+        <v>5937</v>
       </c>
       <c r="F22" t="n">
-        <v>0.748422965893296</v>
+        <v>1.06512569990258</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>1.75438596491228</v>
+        <v>1.37931034482759</v>
       </c>
       <c r="K22" t="n">
         <v>1</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>5120</v>
+        <v>16024</v>
       </c>
       <c r="F23" t="n">
-        <v>6.0824215640852</v>
+        <v>2.87478090201095</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -1391,10 +1391,10 @@
         <v>2.7027027027027</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>3.50877192982456</v>
+        <v>2.06896551724138</v>
       </c>
       <c r="K23" t="n">
         <v>2</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>3278</v>
+        <v>15712</v>
       </c>
       <c r="F24" t="n">
-        <v>3.89417536856861</v>
+        <v>2.81880663582102</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,10 +1429,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J24" t="n">
-        <v>3.50877192982456</v>
+        <v>2.75862068965517</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>1860</v>
+        <v>15257</v>
       </c>
       <c r="F25" t="n">
-        <v>2.20962970882783</v>
+        <v>2.73717749762737</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J25" t="n">
-        <v>1.75438596491228</v>
+        <v>3.10344827586207</v>
       </c>
       <c r="K25" t="n">
         <v>2</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>12085</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2.1681057913631</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1505,10 +1505,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1.72413793103448</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
